--- a/biology/Botanique/Muhlenbergie_paniculée/Muhlenbergie_paniculée.xlsx
+++ b/biology/Botanique/Muhlenbergie_paniculée/Muhlenbergie_paniculée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muhlenbergie_panicul%C3%A9e</t>
+          <t>Muhlenbergie_paniculée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Muhlenbergia paniculata (synonyme : Schedonnardus paniculatus) est une espèce de plantes monocotylédones de la famille des Poaceae,  sous-famille des Chloridoideae, originaire d'Amérique. Ce sont des plantes herbacées, vivaces, cespiteuses, aux tiges dressées pouvant atteindre 45 cm de haut, qui préfèrent les habitats ouverts (Prairie).
-Dans cette espèce, l'inflorescence, panicule composée de cinq à dix épis d'épillets, se détache en entier à maturité et constitue l'unité de dissémination, se comportant comme un virevoltant, d'où son nom vernaculaire aux États-Unis de « tumble grass »[2].
+Dans cette espèce, l'inflorescence, panicule composée de cinq à dix épis d'épillets, se détache en entier à maturité et constitue l'unité de dissémination, se comportant comme un virevoltant, d'où son nom vernaculaire aux États-Unis de « tumble grass ».
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muhlenbergie_panicul%C3%A9e</t>
+          <t>Muhlenbergie_paniculée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (23 octobre 2017)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (23 octobre 2017) :
 Lepturus paniculatus Nutt.
 Rottboellia paniculata (Nutt.) Spreng.
 Schedonnardus paniculatus (Nutt.) Trel.
